--- a/server/customerData.xlsx
+++ b/server/customerData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -25,7 +25,7 @@
     <t>message</t>
   </si>
   <si>
-    <t>abhiram</t>
+    <t>msncjhsvh</t>
   </si>
   <si>
     <t>abhiram.b@oneindia.co.in</t>
@@ -34,28 +34,7 @@
     <t>7026865333</t>
   </si>
   <si>
-    <t>kjcbqekjvbqjbk</t>
-  </si>
-  <si>
-    <t>en weknv w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nm nqv </t>
-  </si>
-  <si>
-    <t>balusu@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n n wn wj </t>
-  </si>
-  <si>
-    <t>fheqjhfb</t>
-  </si>
-  <si>
-    <t>abhi10656@gmail.com</t>
-  </si>
-  <si>
-    <t>khfbfbqjf</t>
+    <t>kjbdbk</t>
   </si>
 </sst>
 </file>
@@ -435,7 +414,7 @@
   <sheetPr>
     <tabColor rgb="FFC0000"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -464,48 +443,6 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/server/customerData.xlsx
+++ b/server/customerData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -25,16 +25,25 @@
     <t>message</t>
   </si>
   <si>
-    <t>msncjhsvh</t>
-  </si>
-  <si>
     <t>abhiram.b@oneindia.co.in</t>
   </si>
   <si>
     <t>7026865333</t>
   </si>
   <si>
-    <t>kjbdbk</t>
+    <t>wcjkbkjqbjkbv</t>
+  </si>
+  <si>
+    <t>abhi10656@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d mnd vmn </t>
+  </si>
+  <si>
+    <t>abhiram</t>
+  </si>
+  <si>
+    <t>nw e vv</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
   <sheetPr>
     <tabColor rgb="FFC0000"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,13 +445,41 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/server/customerData.xlsx
+++ b/server/customerData.xlsx
@@ -25,25 +25,25 @@
     <t>message</t>
   </si>
   <si>
+    <t>abhiram</t>
+  </si>
+  <si>
+    <t>abhi10656@gmail.com</t>
+  </si>
+  <si>
+    <t>7026865333</t>
+  </si>
+  <si>
+    <t>sdfghjklkjhgfdfg</t>
+  </si>
+  <si>
     <t>abhiram.b@oneindia.co.in</t>
   </si>
   <si>
-    <t>7026865333</t>
-  </si>
-  <si>
-    <t>wcjkbkjqbjkbv</t>
-  </si>
-  <si>
-    <t>abhi10656@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d mnd vmn </t>
-  </si>
-  <si>
-    <t>abhiram</t>
-  </si>
-  <si>
-    <t>nw e vv</t>
+    <t xml:space="preserve">nc wdnk wdn </t>
+  </si>
+  <si>
+    <t>dn kf k</t>
   </si>
 </sst>
 </file>
@@ -445,13 +445,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -459,24 +459,24 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
